--- a/sample-tests.xlsx
+++ b/sample-tests.xlsx
@@ -1,32 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/senthil.sb/Documents/toast/git/iBot/testcasefile/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC0AAB6-6719-7845-B5B9-04CF90A2FD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
+    <workbookView xWindow="1000" yWindow="760" windowWidth="33560" windowHeight="21580" tabRatio="500" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="basics" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="key" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="timeout" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="keys" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="script" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="attrib_href" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="iframe" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="sleep" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="dblclick" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="file" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="pause" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="if_endif" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="select" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="tab" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="var_set" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="reload" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="locator2-beta" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="basics" sheetId="1" r:id="rId1"/>
+    <sheet name="key" sheetId="2" r:id="rId2"/>
+    <sheet name="timeout" sheetId="3" r:id="rId3"/>
+    <sheet name="keys" sheetId="4" r:id="rId4"/>
+    <sheet name="script" sheetId="5" r:id="rId5"/>
+    <sheet name="attrib_href" sheetId="6" r:id="rId6"/>
+    <sheet name="iframe" sheetId="7" r:id="rId7"/>
+    <sheet name="sleep" sheetId="8" r:id="rId8"/>
+    <sheet name="dblclick" sheetId="9" r:id="rId9"/>
+    <sheet name="file" sheetId="10" r:id="rId10"/>
+    <sheet name="pause" sheetId="11" r:id="rId11"/>
+    <sheet name="if_endif" sheetId="12" r:id="rId12"/>
+    <sheet name="select" sheetId="13" r:id="rId13"/>
+    <sheet name="tab" sheetId="14" r:id="rId14"/>
+    <sheet name="var_set" sheetId="15" r:id="rId15"/>
+    <sheet name="reload" sheetId="16" r:id="rId16"/>
+    <sheet name="locator2-beta" sheetId="17" r:id="rId17"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -36,651 +41,612 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="228">
-  <si>
-    <t xml:space="preserve">Desc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Case – click</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://the-internet.herokuapp.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Interne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">title:exact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Internet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Example</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assert:exact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Available Examples</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(//a)[3]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add/Remove</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(//div[@id='content']//li)[3]/a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basic Auth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">colon (:) works</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(//div[@id='content']//li)[3]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basic Auth (user and pass: admin)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">click</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">print</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First of Basics done.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(//button)[1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(//button)[2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exists:not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Second of Basics done.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">step 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://demoqa.com/text-box</t>
-  </si>
-  <si>
-    <t xml:space="preserve">screenshot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">screenshot.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ToolsQA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">input#userName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tom*9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">input#userEmail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xyz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assert:value:exact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assert:value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m\*9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sleep,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Case – key</t>
-  </si>
-  <si>
-    <t xml:space="preserve">key</t>
-  </si>
-  <si>
-    <t xml:space="preserve">click:text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Key</t>
-  </si>
-  <si>
-    <t xml:space="preserve">input#target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p#result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArrowRight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RIGHT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Case – timeout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://the-internet.herokuapp.com/dynamic_controls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">title,10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(//h4)[1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dynamic Controls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p#message</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assert,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Case – keys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(//a)[22]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Form Auth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">input#username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tomsmith*9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">input#password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SuperSecretPassword!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sleep,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tomsmith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fills replaces the whole text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">button.radius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.button.secondary.radius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Case 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://yizeng.me/2014/01/31/test-wysiwyg-editors-using-selenium-webdriver/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yi Zeng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">script</t>
-  </si>
-  <si>
-    <t xml:space="preserve">window.frames.length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Case – attrib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text=Digest Auth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attrib:href</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/digest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://the-internet.herokuapp.com/nested_frames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="frame-top"]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iframe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="frame-middle"]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIDDLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iframe:back</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://the-internet.herokuapp.com/iframe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#mce_0_ifr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#tinymce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your content goes here.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testersdock.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">action – sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://123timer.com/5-second</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123Timer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text=Start Pause &gt;&gt; nth=0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">div.alertable-message</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">action – dblclick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tecagile.com/double-click-test/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Online Double</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#darea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dblclick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action: file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://the-internet.herokuapp.com/upload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#file-upload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/home/svr/Downloads/strawberry.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#file-submit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#uploaded-files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strawberry.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Case 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.w3schools.com/howto/tryit.asp?filename=tryhow_html_file_upload_button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tryit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#iframeResult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">input[name="filename"]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">input[type="submit"]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submitted Form Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//div[1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pause</t>
-  </si>
-  <si>
-    <t xml:space="preserve">action – if endif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">try 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://demoqa.com/radio-button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//span[@class='text-success']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assert?miss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impressive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if</t>
-  </si>
-  <si>
-    <t xml:space="preserve">!miss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impressive is here!!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">endif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impressive not there.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">try 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//label[contains(.,'Impressive')]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assert?nope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">!nope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All is fine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inside if</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outside if</t>
-  </si>
-  <si>
-    <t xml:space="preserve">try 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">action – select</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://letcode.in/dropdowns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LetCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#superheros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aq,ta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//p[@class='subtitle']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aquaman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avengers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sheet – action – tab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://letcode.in/windows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Window</t>
-  </si>
-  <si>
-    <t xml:space="preserve">button#home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">click:tab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing Hub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//a[@title='Koushik Chatterjee']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LinkedIn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tab:back</t>
-  </si>
-  <si>
-    <t xml:space="preserve">title?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sheet - action - var</t>
-  </si>
-  <si>
-    <t xml:space="preserve">button#multi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">var</t>
-  </si>
-  <si>
-    <t xml:space="preserve">myvar1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">something</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xx{{myvar1}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">var:set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">myvar2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{myvar2}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">button#{{myvar2}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muiltiple windows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">try 2 - from .env</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{MYVAR}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="218">
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Locator</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Case – click</t>
+  </si>
+  <si>
+    <t>id 1</t>
+  </si>
+  <si>
+    <t>Step 1</t>
+  </si>
+  <si>
+    <t>https://the-internet.herokuapp.com/</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>id 2</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>The Interne</t>
+  </si>
+  <si>
+    <t>id 3</t>
+  </si>
+  <si>
+    <t>title:exact</t>
+  </si>
+  <si>
+    <t>The Internet</t>
+  </si>
+  <si>
+    <t>id 4</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>assert</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>id 5</t>
+  </si>
+  <si>
+    <t>assert:exact</t>
+  </si>
+  <si>
+    <t>Available Examples</t>
+  </si>
+  <si>
+    <t>id 6</t>
+  </si>
+  <si>
+    <t>(//a)[3]</t>
+  </si>
+  <si>
+    <t>Add/Remove</t>
+  </si>
+  <si>
+    <t>(//div[@id='content']//li)[3]/a</t>
+  </si>
+  <si>
+    <t>Basic Auth</t>
+  </si>
+  <si>
+    <t>colon (:) works</t>
+  </si>
+  <si>
+    <t>(//div[@id='content']//li)[3]</t>
+  </si>
+  <si>
+    <t>Basic Auth (user and pass: admin)</t>
+  </si>
+  <si>
+    <t>id 7</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>id 8</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>First of Basics done.</t>
+  </si>
+  <si>
+    <t>id 10</t>
+  </si>
+  <si>
+    <t>Step 2</t>
+  </si>
+  <si>
+    <t>h3</t>
+  </si>
+  <si>
+    <t>id 11</t>
+  </si>
+  <si>
+    <t>(//button)[1]</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>id 12</t>
+  </si>
+  <si>
+    <t>(//button)[2]</t>
+  </si>
+  <si>
+    <t>exists:not</t>
+  </si>
+  <si>
+    <t>id 13</t>
+  </si>
+  <si>
+    <t>id 14</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>id 15</t>
+  </si>
+  <si>
+    <t>id 16</t>
+  </si>
+  <si>
+    <t>id 17</t>
+  </si>
+  <si>
+    <t>Second of Basics done.</t>
+  </si>
+  <si>
+    <t>id 18</t>
+  </si>
+  <si>
+    <t>id 19</t>
+  </si>
+  <si>
+    <t>step 3</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/text-box</t>
+  </si>
+  <si>
+    <t>screenshot</t>
+  </si>
+  <si>
+    <t>screenshot.png</t>
+  </si>
+  <si>
+    <t>ToolsQA</t>
+  </si>
+  <si>
+    <t>input#userName</t>
+  </si>
+  <si>
+    <t>keys</t>
+  </si>
+  <si>
+    <t>tom*9</t>
+  </si>
+  <si>
+    <t>input#userEmail</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>assert:value:exact</t>
+  </si>
+  <si>
+    <t>assert:value</t>
+  </si>
+  <si>
+    <t>m\*9</t>
+  </si>
+  <si>
+    <t>sleep,5</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>Case – key</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>click:text</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>input#target</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>p#result</t>
+  </si>
+  <si>
+    <t>ArrowRight</t>
+  </si>
+  <si>
+    <t>RIGHT</t>
+  </si>
+  <si>
+    <t>Case – timeout</t>
+  </si>
+  <si>
+    <t>https://the-internet.herokuapp.com/dynamic_controls</t>
+  </si>
+  <si>
+    <t>title,10</t>
+  </si>
+  <si>
+    <t>(//h4)[1]</t>
+  </si>
+  <si>
+    <t>Dynamic Controls</t>
+  </si>
+  <si>
+    <t>p#message</t>
+  </si>
+  <si>
+    <t>assert,4</t>
+  </si>
+  <si>
+    <t>enabled</t>
+  </si>
+  <si>
+    <t>Case – keys</t>
+  </si>
+  <si>
+    <t>(//a)[22]</t>
+  </si>
+  <si>
+    <t>Form Auth</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>input#username</t>
+  </si>
+  <si>
+    <t>tomsmith*9</t>
+  </si>
+  <si>
+    <t>input#password</t>
+  </si>
+  <si>
+    <t>SuperSecretPassword!</t>
+  </si>
+  <si>
+    <t>sleep,3</t>
+  </si>
+  <si>
+    <t>tomsmith</t>
+  </si>
+  <si>
+    <t>fills replaces the whole text</t>
+  </si>
+  <si>
+    <t>button.radius</t>
+  </si>
+  <si>
+    <t>Step 3</t>
+  </si>
+  <si>
+    <t>Secure</t>
+  </si>
+  <si>
+    <t>a.button.secondary.radius</t>
+  </si>
+  <si>
+    <t>Step 4</t>
+  </si>
+  <si>
+    <t>Step 5</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>Desc1</t>
+  </si>
+  <si>
+    <t>https://yizeng.me/2014/01/31/test-wysiwyg-editors-using-selenium-webdriver/</t>
+  </si>
+  <si>
+    <t>Yi Zeng</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>script</t>
+  </si>
+  <si>
+    <t>window.frames.length</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Case – attrib</t>
+  </si>
+  <si>
+    <t>text=Digest Auth</t>
+  </si>
+  <si>
+    <t>attrib:href</t>
+  </si>
+  <si>
+    <t>/digest</t>
+  </si>
+  <si>
+    <t>https://the-internet.herokuapp.com/nested_frames</t>
+  </si>
+  <si>
+    <t>[name="frame-top"]</t>
+  </si>
+  <si>
+    <t>iframe</t>
+  </si>
+  <si>
+    <t>[name="frame-middle"]</t>
+  </si>
+  <si>
+    <t>#content</t>
+  </si>
+  <si>
+    <t>MIDDLE</t>
+  </si>
+  <si>
+    <t>iframe:back</t>
+  </si>
+  <si>
+    <t>http://the-internet.herokuapp.com/iframe</t>
+  </si>
+  <si>
+    <t>#mce_0_ifr</t>
+  </si>
+  <si>
+    <t>frame</t>
+  </si>
+  <si>
+    <t>#tinymce</t>
+  </si>
+  <si>
+    <t>Your content goes here.</t>
+  </si>
+  <si>
+    <t>Testersdock.com</t>
+  </si>
+  <si>
+    <t>action – sleep</t>
+  </si>
+  <si>
+    <t>https://123timer.com/5-second</t>
+  </si>
+  <si>
+    <t>123Timer</t>
+  </si>
+  <si>
+    <t>text=Start Pause &gt;&gt; nth=0</t>
+  </si>
+  <si>
+    <t>div.alertable-message</t>
+  </si>
+  <si>
+    <t>exists</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>action – dblclick</t>
+  </si>
+  <si>
+    <t>https://tecagile.com/double-click-test/</t>
+  </si>
+  <si>
+    <t>Online Double</t>
+  </si>
+  <si>
+    <t>#darea</t>
+  </si>
+  <si>
+    <t>dblclick</t>
+  </si>
+  <si>
+    <t>Action: file</t>
+  </si>
+  <si>
+    <t>https://the-internet.herokuapp.com/upload</t>
+  </si>
+  <si>
+    <t>#file-upload</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>/home/svr/Downloads/strawberry.jpg</t>
+  </si>
+  <si>
+    <t>#file-submit</t>
+  </si>
+  <si>
+    <t>#uploaded-files</t>
+  </si>
+  <si>
+    <t>strawberry.jpg</t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/howto/tryit.asp?filename=tryhow_html_file_upload_button</t>
+  </si>
+  <si>
+    <t>Tryit</t>
+  </si>
+  <si>
+    <t>#iframeResult</t>
+  </si>
+  <si>
+    <t>input[name="filename"]</t>
+  </si>
+  <si>
+    <t>input[type="submit"]</t>
+  </si>
+  <si>
+    <t>h1</t>
+  </si>
+  <si>
+    <t>Submitted Form Data</t>
+  </si>
+  <si>
+    <t>//div[1]</t>
+  </si>
+  <si>
+    <t>pause</t>
+  </si>
+  <si>
+    <t>action – if endif</t>
+  </si>
+  <si>
+    <t>try 1</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/radio-button</t>
+  </si>
+  <si>
+    <t>//span[@class='text-success']</t>
+  </si>
+  <si>
+    <t>assert?miss</t>
+  </si>
+  <si>
+    <t>Impressive</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>!miss</t>
+  </si>
+  <si>
+    <t>Impressive is here!!</t>
+  </si>
+  <si>
+    <t>endif</t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t>Impressive not there.</t>
+  </si>
+  <si>
+    <t>try 2</t>
+  </si>
+  <si>
+    <t>//label[contains(.,'Impressive')]</t>
+  </si>
+  <si>
+    <t>assert?nope</t>
+  </si>
+  <si>
+    <t>!nope</t>
+  </si>
+  <si>
+    <t>All is fine</t>
+  </si>
+  <si>
+    <t>nope</t>
+  </si>
+  <si>
+    <t>inside if</t>
+  </si>
+  <si>
+    <t>outside if</t>
+  </si>
+  <si>
+    <t>try 3</t>
+  </si>
+  <si>
+    <t>action – select</t>
+  </si>
+  <si>
+    <t>https://letcode.in/dropdowns</t>
+  </si>
+  <si>
+    <t>LetCode</t>
+  </si>
+  <si>
+    <t>#superheros</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>aq,ta</t>
+  </si>
+  <si>
+    <t>//p[@class='subtitle']</t>
+  </si>
+  <si>
+    <t>Aquaman</t>
+  </si>
+  <si>
+    <t>ta</t>
+  </si>
+  <si>
+    <t>Avengers</t>
+  </si>
+  <si>
+    <t>sheet – action – tab</t>
+  </si>
+  <si>
+    <t>https://letcode.in/windows</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>button#home</t>
+  </si>
+  <si>
+    <t>click:tab</t>
+  </si>
+  <si>
+    <t>Testing Hub</t>
+  </si>
+  <si>
+    <t>//a[@title='Koushik Chatterjee']</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>tab:back</t>
+  </si>
+  <si>
+    <t>title?</t>
+  </si>
+  <si>
+    <t>sheet - action - var</t>
+  </si>
+  <si>
+    <t>reload</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
   <si>
     <r>
@@ -695,62 +661,67 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">npx playwright codegen &lt;url&gt;</t>
+      <t>npx playwright codegen &lt;url&gt;</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">!link|Key Presses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">! | getByRole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">!!!You entered:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">!!! getByText</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://letcode.in/edit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">!!Enter first</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">!! getByPlaceholder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">screenshot-atlast.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sleep,1</t>
+    <t>!link|Key Presses</t>
+  </si>
+  <si>
+    <t>! | getByRole</t>
+  </si>
+  <si>
+    <t>#target</t>
+  </si>
+  <si>
+    <t>!!!You entered:</t>
+  </si>
+  <si>
+    <t>!!! getByText</t>
+  </si>
+  <si>
+    <t>https://letcode.in/edit</t>
+  </si>
+  <si>
+    <t>Interact</t>
+  </si>
+  <si>
+    <t>!!Enter first</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>!! getByPlaceholder</t>
+  </si>
+  <si>
+    <t>screenshot-atlast.png</t>
+  </si>
+  <si>
+    <t>sleep,1</t>
+  </si>
+  <si>
+    <t>{{BASEURL}}</t>
+  </si>
+  <si>
+    <t>{{USERID}}</t>
+  </si>
+  <si>
+    <t>{{PASSWORD}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -759,22 +730,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -803,14 +759,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FFC6C6C6"/>
       </left>
@@ -826,85 +782,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -963,36 +874,343 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="46.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="32.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="7" style="0" width="12.44"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="46.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="32.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="14" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1009,12 +1227,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1028,7 +1246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1039,7 +1257,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -1050,210 +1268,210 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>34</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>34</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1263,7 +1481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
@@ -1273,7 +1491,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D25" s="5" t="s">
         <v>11</v>
       </c>
@@ -1281,91 +1499,83 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>60</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="0" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>60</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="0" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="0" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="0" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D37" s="0" t="s">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.22265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="78.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="44.44"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="78.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="44.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1382,24 +1592,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>140</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>141</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
@@ -1407,37 +1617,37 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
         <v>145</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>148</v>
       </c>
@@ -1449,7 +1659,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D10" s="5" t="s">
         <v>11</v>
       </c>
@@ -1457,8 +1667,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
         <v>151</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -1466,65 +1676,64 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
         <v>153</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="0" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
         <v>151</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="0" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
         <v>154</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0" t="s">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
         <v>156</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" t="s">
         <v>147</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1532,24 +1741,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.22265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.22"/>
+    <col min="3" max="3" width="32.83203125" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1566,13 +1772,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>86</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1584,7 +1790,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
@@ -1592,170 +1798,170 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>157</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>60</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>60</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>60</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>60</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="5"/>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="5"/>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -1763,10 +1969,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1774,25 +1979,22 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.22265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="52.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.55"/>
+    <col min="1" max="1" width="6.1640625" customWidth="1"/>
+    <col min="3" max="3" width="52.5" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1809,21 +2011,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>158</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
       <c r="B3" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
       <c r="C4" s="5" t="s">
         <v>160</v>
       </c>
@@ -1832,8 +2034,8 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
       <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1841,90 +2043,90 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
-      <c r="C6" s="0" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="C6" t="s">
         <v>161</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10"/>
-      <c r="D7" s="0" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="D7" t="s">
         <v>164</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10"/>
-      <c r="D8" s="0" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10"/>
-      <c r="D9" s="0" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="D9" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10"/>
-      <c r="D10" s="0" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="D10" t="s">
         <v>164</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10"/>
-      <c r="D11" s="0" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="D11" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10"/>
-      <c r="D12" s="0" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="D12" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10"/>
-      <c r="D13" s="0" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="D13" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
       <c r="B16" s="5" t="s">
         <v>170</v>
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
       <c r="C17" s="5" t="s">
         <v>160</v>
       </c>
@@ -1933,8 +2135,8 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
       <c r="D18" s="5" t="s">
         <v>11</v>
       </c>
@@ -1942,115 +2144,115 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10"/>
-      <c r="C19" s="0" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="C19" t="s">
         <v>171</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10"/>
-      <c r="C20" s="0" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="C20" t="s">
         <v>161</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>172</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10"/>
-      <c r="D21" s="0" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="9"/>
+      <c r="D21" t="s">
         <v>164</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10"/>
-      <c r="D22" s="0" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="D22" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10"/>
-      <c r="D23" s="0" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="D23" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="0" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
         <v>164</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
         <v>171</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
         <v>161</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="0" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="0" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
         <v>167</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="0" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="0" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
         <v>178</v>
       </c>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C33" s="5" t="s">
         <v>160</v>
       </c>
@@ -2059,7 +2261,7 @@
       </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D34" s="5" t="s">
         <v>11</v>
       </c>
@@ -2067,99 +2269,98 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="0" t="s">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
         <v>161</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" t="s">
         <v>172</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D36" s="0" t="s">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
         <v>164</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="E36" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D37" s="0" t="s">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D38" s="0" t="s">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D39" s="0" t="s">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
         <v>164</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="0" t="s">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
         <v>171</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="0" t="s">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
         <v>161</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="E41" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D42" s="0" t="s">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D43" s="0" t="s">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
         <v>167</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="E43" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D44" s="0" t="s">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
         <v>34</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="E44" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D45" s="0" t="s">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2167,24 +2368,21 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.22265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11"/>
+    <col min="3" max="3" width="33.5" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2201,21 +2399,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>179</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
       <c r="B3" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
       <c r="C4" s="5" t="s">
         <v>180</v>
       </c>
@@ -2224,8 +2422,8 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
       <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
@@ -2233,60 +2431,59 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
         <v>182</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>183</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
         <v>185</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
         <v>182</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>183</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
         <v>185</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="0" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
         <v>94</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2294,24 +2491,21 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.22265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.11"/>
+    <col min="3" max="3" width="35.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2328,12 +2522,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C3" s="5" t="s">
         <v>190</v>
       </c>
@@ -2342,7 +2536,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
@@ -2350,57 +2544,57 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
         <v>192</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="0" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
         <v>195</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="0" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="0" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="0" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="0" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D12" s="5" t="s">
         <v>198</v>
       </c>
@@ -2409,10 +2603,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2420,26 +2613,22 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.89"/>
+    <col min="1" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="37.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2456,108 +2645,74 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D4" s="5" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D5" s="5" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>212</v>
-      </c>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2565,23 +2720,20 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.22265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.44"/>
+    <col min="3" max="3" width="32.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2598,13 +2750,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>69</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
@@ -2616,7 +2768,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
@@ -2624,154 +2776,153 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>71</v>
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>70</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>70</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="0" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="0" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="0" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>70</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0" t="s">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="0" t="s">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>70</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="s">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="0" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
         <v>94</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
@@ -2779,25 +2930,22 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.22265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="50.38"/>
+    <col min="3" max="3" width="32.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="50.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2814,19 +2962,19 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>69</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="0" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
@@ -2838,7 +2986,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
@@ -2846,133 +2994,132 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="D6" s="0" t="s">
+      <c r="C6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="0" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="D7" s="0" t="s">
+      <c r="F6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
-      <c r="C8" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="D8" s="0" t="s">
+      <c r="C8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D8" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="D10" s="0" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="1">
         <v>7</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="D12" s="0" t="s">
+      <c r="C12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D12" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="D15" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="0" t="s">
+      <c r="E15" t="s">
+        <v>211</v>
+      </c>
+      <c r="F15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="0" t="s">
-        <v>227</v>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>214</v>
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E22" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
@@ -2980,23 +3127,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.22265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.44"/>
+    <col min="3" max="3" width="32.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3013,13 +3157,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>69</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
@@ -3031,7 +3175,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
@@ -3039,70 +3183,70 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>71</v>
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>70</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>70</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -3110,10 +3254,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3121,24 +3264,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.22265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="46.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.22"/>
+    <col min="3" max="3" width="46.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3155,13 +3295,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>78</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
@@ -3173,7 +3313,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
         <v>80</v>
@@ -3182,31 +3322,31 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>84</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -3214,10 +3354,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3225,24 +3364,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.22265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.44"/>
+    <col min="3" max="3" width="33.83203125" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3259,13 +3395,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>86</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
@@ -3277,7 +3413,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
@@ -3285,183 +3421,183 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>60</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>60</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="0" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
         <v>94</v>
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>60</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="0" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>60</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="5"/>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>60</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="5"/>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="5"/>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -3469,10 +3605,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3480,25 +3615,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="67.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="25.45"/>
+    <col min="1" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="67.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="25.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3515,12 +3647,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>104</v>
       </c>
@@ -3535,7 +3667,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
@@ -3543,15 +3675,15 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="17.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="7">
         <v>1500</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
         <v>108</v>
@@ -3560,40 +3692,32 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.22265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.66"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3610,13 +3734,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -3626,22 +3750,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="0" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>114</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3649,145 +3772,141 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.22265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.78"/>
+    <col min="1" max="1" width="12.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="45.1640625" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="33.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>115</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="0" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
         <v>116</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="0" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
         <v>118</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D6" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D7" s="5" t="s">
         <v>121</v>
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
         <v>125</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D14" s="5" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3795,23 +3914,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.22265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.33"/>
+    <col min="3" max="3" width="34.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3828,13 +3944,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>128</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>103</v>
       </c>
@@ -3846,7 +3962,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
@@ -3854,73 +3970,72 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="0" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
         <v>94</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="0" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
         <v>94</v>
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
         <v>132</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>133</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E14" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3928,23 +4043,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.22265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.66"/>
+    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3961,13 +4073,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>103</v>
       </c>
@@ -3979,7 +4091,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
@@ -3987,104 +4099,103 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
         <v>138</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>139</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
         <v>138</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
         <v>138</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
         <v>138</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>139</v>
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E19" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
